--- a/all.xlsx
+++ b/all.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,292 +26,292 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="433">
   <si>
-    <t xml:space="preserve">nama_siswa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alamat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tgl_lahir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jenis_kel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thn_ajaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_ayah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pend_akhir_ayah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pekerjaan_ayah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_ibu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pend_akhir_ibu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pekerjaan_ibu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alamat_ortu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_wali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pend_akhir_wali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pekerjaan_wali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alamat_wali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sekolah_asal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alamat_sekolah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tahun_lulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurusan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yunita Sari</t>
+    <t>nama_siswa</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>tgl_lahir</t>
+  </si>
+  <si>
+    <t>jenis_kel</t>
+  </si>
+  <si>
+    <t>thn_ajaran</t>
+  </si>
+  <si>
+    <t>nama_ayah</t>
+  </si>
+  <si>
+    <t>pend_akhir_ayah</t>
+  </si>
+  <si>
+    <t>pekerjaan_ayah</t>
+  </si>
+  <si>
+    <t>nama_ibu</t>
+  </si>
+  <si>
+    <t>pend_akhir_ibu</t>
+  </si>
+  <si>
+    <t>pekerjaan_ibu</t>
+  </si>
+  <si>
+    <t>alamat_ortu</t>
+  </si>
+  <si>
+    <t>nama_wali</t>
+  </si>
+  <si>
+    <t>pend_akhir_wali</t>
+  </si>
+  <si>
+    <t>pekerjaan_wali</t>
+  </si>
+  <si>
+    <t>alamat_wali</t>
+  </si>
+  <si>
+    <t>sekolah_asal</t>
+  </si>
+  <si>
+    <t>alamat_sekolah</t>
+  </si>
+  <si>
+    <t>tahun_lulus</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>jurusan</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>Yunita Sari</t>
   </si>
   <si>
     <t xml:space="preserve">Jl. Simpang Gajah Mada </t>
   </si>
   <si>
-    <t xml:space="preserve">Perempuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juwaidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Nusan Penida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Setia Budi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aktif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipa</t>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Juwaidi</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>PNS</t>
+  </si>
+  <si>
+    <t>Rika</t>
+  </si>
+  <si>
+    <t>SMP Nusan Penida</t>
+  </si>
+  <si>
+    <t>Jl. Setia Budi</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>aktif</t>
+  </si>
+  <si>
+    <t>ipa</t>
   </si>
   <si>
     <t xml:space="preserve"> Islam</t>
   </si>
   <si>
-    <t xml:space="preserve">Irwan Gunawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perumahan Griya Giri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laki-Laki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ridwan Yusuf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alya Nir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rumah Tangga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP N 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Melati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yulia Khairunisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Kapten Griya</t>
+    <t>Irwan Gunawan</t>
+  </si>
+  <si>
+    <t>Perumahan Griya Giri</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Ridwan Yusuf</t>
+  </si>
+  <si>
+    <t>Alya Nir</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>Rumah Tangga</t>
+  </si>
+  <si>
+    <t>SMP N 30</t>
+  </si>
+  <si>
+    <t>Jl. Melati</t>
+  </si>
+  <si>
+    <t>Yulia Khairunisa</t>
+  </si>
+  <si>
+    <t>Jl. Kapten Griya</t>
   </si>
   <si>
     <t xml:space="preserve">Jamal </t>
   </si>
   <si>
-    <t xml:space="preserve">Adi Pratama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Griya Sari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siri Jumaiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penjual</t>
+    <t>Adi Pratama</t>
+  </si>
+  <si>
+    <t>Jl. Griya Sari</t>
+  </si>
+  <si>
+    <t>Gunawan</t>
+  </si>
+  <si>
+    <t>Dosen</t>
+  </si>
+  <si>
+    <t>Siri Jumaiti</t>
+  </si>
+  <si>
+    <t>Penjual</t>
   </si>
   <si>
     <t xml:space="preserve">Jl. Griya Sari </t>
   </si>
   <si>
-    <t xml:space="preserve">SMP N 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Pringan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad Pratama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JL. Sangkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badrun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sari Yulia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Sangkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Dharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Dr Mansyur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dita Rahmadani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Ujung Siri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badrun Gunawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP N 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Mawar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fitriayani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Mawar Sari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riky Gunawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl Mawar Sari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miftahul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Anggrek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Petani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Sawah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indra Aswari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Lereng Lembah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ginting Siregar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farah Jaskiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegawai Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Pancasila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Simp Pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahma Aulia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Jangkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ridwan Kamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaskiah Sungkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl Jangkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anika Andriani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Pulpen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disra Jamal</t>
+    <t>SMP N 7</t>
+  </si>
+  <si>
+    <t>Jl. Pringan</t>
+  </si>
+  <si>
+    <t>Ahmad Pratama</t>
+  </si>
+  <si>
+    <t>JL. Sangkar</t>
+  </si>
+  <si>
+    <t>Badrun</t>
+  </si>
+  <si>
+    <t>Sari Yulia</t>
+  </si>
+  <si>
+    <t>Jl. Sangkar</t>
+  </si>
+  <si>
+    <t>SMP Dharma</t>
+  </si>
+  <si>
+    <t>Jl. Dr Mansyur</t>
+  </si>
+  <si>
+    <t>Dita Rahmadani</t>
+  </si>
+  <si>
+    <t>Jl. Ujung Siri</t>
+  </si>
+  <si>
+    <t>Badrun Gunawan</t>
+  </si>
+  <si>
+    <t>SMP N 1</t>
+  </si>
+  <si>
+    <t>Jl. Mawar</t>
+  </si>
+  <si>
+    <t>Fitriayani</t>
+  </si>
+  <si>
+    <t>Jl. Mawar Sari</t>
+  </si>
+  <si>
+    <t>Riky Gunawan</t>
+  </si>
+  <si>
+    <t>Fani</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>Jl Mawar Sari</t>
+  </si>
+  <si>
+    <t>Miftahul</t>
+  </si>
+  <si>
+    <t>Jl. Anggrek</t>
+  </si>
+  <si>
+    <t>Andri</t>
+  </si>
+  <si>
+    <t>Fina</t>
+  </si>
+  <si>
+    <t>SMP Petani</t>
+  </si>
+  <si>
+    <t>Jl. Sawah</t>
+  </si>
+  <si>
+    <t>Indra Aswari</t>
+  </si>
+  <si>
+    <t>Jl. Lereng Lembah</t>
+  </si>
+  <si>
+    <t>Ginting Siregar</t>
+  </si>
+  <si>
+    <t>Farah Jaskiah</t>
+  </si>
+  <si>
+    <t>Pegawai Bank</t>
+  </si>
+  <si>
+    <t>SMP Pancasila</t>
+  </si>
+  <si>
+    <t>Jl. Simp Pos</t>
+  </si>
+  <si>
+    <t>Rahma Aulia</t>
+  </si>
+  <si>
+    <t>Jl. Jangkar</t>
+  </si>
+  <si>
+    <t>Ridwan Kamil</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>Zaskiah Sungkar</t>
+  </si>
+  <si>
+    <t>Jl Jangkar</t>
+  </si>
+  <si>
+    <t>Anika Andriani</t>
+  </si>
+  <si>
+    <t>Jl. Pulpen</t>
+  </si>
+  <si>
+    <t>Disra Jamal</t>
   </si>
   <si>
     <t xml:space="preserve">S1 </t>
@@ -316,34 +320,34 @@
     <t xml:space="preserve">Rahma </t>
   </si>
   <si>
-    <t xml:space="preserve">Oktavia Vira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Ahmad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Beo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indra Tami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengusaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rida Oktavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niken Tamara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Langgar</t>
+    <t>Oktavia Vira</t>
+  </si>
+  <si>
+    <t>Muhammad Ahmad</t>
+  </si>
+  <si>
+    <t>Jl. Beo</t>
+  </si>
+  <si>
+    <t>Indra Tami</t>
+  </si>
+  <si>
+    <t>Pengusaha</t>
+  </si>
+  <si>
+    <t>Rida Oktavia</t>
+  </si>
+  <si>
+    <t>Niken Tamara</t>
+  </si>
+  <si>
+    <t>Jl. Langgar</t>
   </si>
   <si>
     <t xml:space="preserve">Purnomo </t>
   </si>
   <si>
-    <t xml:space="preserve">Nur Cahya</t>
+    <t>Nur Cahya</t>
   </si>
   <si>
     <t xml:space="preserve">SMP N 7 </t>
@@ -352,13 +356,13 @@
     <t xml:space="preserve"> Kristen</t>
   </si>
   <si>
-    <t xml:space="preserve">Wicaksonon Putra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Berjaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putra Dwi</t>
+    <t>Wicaksonon Putra</t>
+  </si>
+  <si>
+    <t>Jl. Berjaya</t>
+  </si>
+  <si>
+    <t>Putra Dwi</t>
   </si>
   <si>
     <t xml:space="preserve">Nuril </t>
@@ -367,208 +371,208 @@
     <t xml:space="preserve">SMP N 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">Gani Purnama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Selimut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyu Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNI</t>
+    <t>Gani Purnama</t>
+  </si>
+  <si>
+    <t>Jl. Selimut</t>
+  </si>
+  <si>
+    <t>Banyu Mas</t>
+  </si>
+  <si>
+    <t>TNI</t>
   </si>
   <si>
     <t xml:space="preserve">Martina </t>
   </si>
   <si>
-    <t xml:space="preserve">S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Sultan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Tanjung Rejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gina Putri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Barbasia Nili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satria Musto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mila Dini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP N 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Ringroad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Ari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Biduri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dini Rahma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JL. Biduri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP  Swasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Ahmad Yani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M Ridwan Tarigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Asoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lala Riri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Telkom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Simp Selayang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anisa Barus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. A.H Nasution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumayati</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>SMP Sultan</t>
+  </si>
+  <si>
+    <t>Jl. Tanjung Rejo</t>
+  </si>
+  <si>
+    <t>Gina Putri</t>
+  </si>
+  <si>
+    <t>Jl. Barbasia Nili</t>
+  </si>
+  <si>
+    <t>Satria Musto</t>
+  </si>
+  <si>
+    <t>Polisi</t>
+  </si>
+  <si>
+    <t>Mila Dini</t>
+  </si>
+  <si>
+    <t>SMP N 10</t>
+  </si>
+  <si>
+    <t>Jl. Ringroad</t>
+  </si>
+  <si>
+    <t>Muhammad Ari</t>
+  </si>
+  <si>
+    <t>Jl. Biduri</t>
+  </si>
+  <si>
+    <t>Ananda</t>
+  </si>
+  <si>
+    <t>Dini Rahma</t>
+  </si>
+  <si>
+    <t>JL. Biduri</t>
+  </si>
+  <si>
+    <t>SMP  Swasta</t>
+  </si>
+  <si>
+    <t>Jl. Ahmad Yani</t>
+  </si>
+  <si>
+    <t>M Ridwan Tarigan</t>
+  </si>
+  <si>
+    <t>Jl. Asoka</t>
+  </si>
+  <si>
+    <t>Muhanda</t>
+  </si>
+  <si>
+    <t>Lala Riri</t>
+  </si>
+  <si>
+    <t>SMP Telkom</t>
+  </si>
+  <si>
+    <t>Jl. Simp Selayang</t>
+  </si>
+  <si>
+    <t>Anisa Barus</t>
+  </si>
+  <si>
+    <t>Jl. A.H Nasution</t>
+  </si>
+  <si>
+    <t>Jono</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Jumayati</t>
   </si>
   <si>
     <t xml:space="preserve">M Rosadi </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Raya Licin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajeng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur Andina Rahma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Muwarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budi Gunawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brastila Lesti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Banterang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ridwan Jamal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinda Lala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Klontang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunawan Purnomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aulia Rahma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayhaqi Daulay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Eka Rasmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haqi Jono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Muhamadiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Seta Budi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyu Dwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Purnama Jaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vira Oktavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ameta Dian Fachira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Bougeinville 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zulkilfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafika Aigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Udin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinda Nazli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Bougeinville 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anto Siregar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Satu Jiah</t>
+    <t>Jl. Raya Licin</t>
+  </si>
+  <si>
+    <t>Agung</t>
+  </si>
+  <si>
+    <t>Ajeng</t>
+  </si>
+  <si>
+    <t>Nur Andina Rahma</t>
+  </si>
+  <si>
+    <t>Jl. Muwarma</t>
+  </si>
+  <si>
+    <t>Budi Gunawan</t>
+  </si>
+  <si>
+    <t>Brastila Lesti</t>
+  </si>
+  <si>
+    <t>Jl. Banterang</t>
+  </si>
+  <si>
+    <t>Ridwan Jamal</t>
+  </si>
+  <si>
+    <t>Dinda Lala</t>
+  </si>
+  <si>
+    <t>Jl. Klontang</t>
+  </si>
+  <si>
+    <t>Gunawan Purnomo</t>
+  </si>
+  <si>
+    <t>Aulia Rahma</t>
+  </si>
+  <si>
+    <t>Bayhaqi Daulay</t>
+  </si>
+  <si>
+    <t>Jl. Eka Rasmi</t>
+  </si>
+  <si>
+    <t>Haqi Jono</t>
+  </si>
+  <si>
+    <t>SMP Muhamadiah</t>
+  </si>
+  <si>
+    <t>Jl. Seta Budi</t>
+  </si>
+  <si>
+    <t>Banyu Dwi</t>
+  </si>
+  <si>
+    <t>Jl. Purnama Jaya</t>
+  </si>
+  <si>
+    <t>Vira Oktavia</t>
+  </si>
+  <si>
+    <t>Ameta Dian Fachira</t>
+  </si>
+  <si>
+    <t>Jl. Bougeinville 2</t>
+  </si>
+  <si>
+    <t>Zulkilfi</t>
+  </si>
+  <si>
+    <t>Yetti</t>
+  </si>
+  <si>
+    <t>ips</t>
+  </si>
+  <si>
+    <t>Rafika Aigo</t>
+  </si>
+  <si>
+    <t>Muhammad Udin</t>
+  </si>
+  <si>
+    <t>Dinda Nazli</t>
+  </si>
+  <si>
+    <t>Jl. Bougeinville 3</t>
+  </si>
+  <si>
+    <t>Budi</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Anto Siregar</t>
+  </si>
+  <si>
+    <t>Jl. Satu Jiah</t>
   </si>
   <si>
     <t xml:space="preserve"> 29/09/2003</t>
@@ -577,91 +581,91 @@
     <t xml:space="preserve"> Kiki</t>
   </si>
   <si>
-    <t xml:space="preserve">Pekerja Kantoran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Satu Jua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP Santa Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Katamso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kristen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legardo Hamoloan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Asisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jans</t>
+    <t>Pekerja Kantoran</t>
+  </si>
+  <si>
+    <t>Jesica</t>
+  </si>
+  <si>
+    <t>Jl. Satu Jua</t>
+  </si>
+  <si>
+    <t>SMP Santa Thomas</t>
+  </si>
+  <si>
+    <t>Jl. Katamso</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Legardo Hamoloan</t>
+  </si>
+  <si>
+    <t>Jl. Asisi</t>
+  </si>
+  <si>
+    <t>Jans</t>
   </si>
   <si>
     <t xml:space="preserve"> SMA</t>
   </si>
   <si>
-    <t xml:space="preserve">Selvi</t>
+    <t>Selvi</t>
   </si>
   <si>
     <t xml:space="preserve">Johan </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Pembangunan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motoharu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenni Lim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yusuf Aldiansyah</t>
+    <t>Jl. Pembangunan</t>
+  </si>
+  <si>
+    <t>Motoharu</t>
+  </si>
+  <si>
+    <t>Fenni Lim</t>
+  </si>
+  <si>
+    <t>Yusuf Aldiansyah</t>
   </si>
   <si>
     <t xml:space="preserve"> Fauzan</t>
   </si>
   <si>
-    <t xml:space="preserve">Yessi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defina Yenatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dian Ningsih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Ujung Sari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Juanita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Thalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thoriq Owen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Karya Jaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angga Satrio</t>
+    <t>Yessi</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Defina Yenatta</t>
+  </si>
+  <si>
+    <t>Dian Ningsih</t>
+  </si>
+  <si>
+    <t>Jl. Ujung Sari</t>
+  </si>
+  <si>
+    <t>Nael</t>
+  </si>
+  <si>
+    <t>Jl. Juanita</t>
+  </si>
+  <si>
+    <t>Victor Thalib</t>
+  </si>
+  <si>
+    <t>Heven</t>
+  </si>
+  <si>
+    <t>Thoriq Owen</t>
+  </si>
+  <si>
+    <t>Jl. Karya Jaya</t>
+  </si>
+  <si>
+    <t>Angga Satrio</t>
   </si>
   <si>
     <t xml:space="preserve">Okki </t>
@@ -670,40 +674,40 @@
     <t xml:space="preserve"> Jl. Karya Jaya</t>
   </si>
   <si>
-    <t xml:space="preserve">Kayla Hayyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Jaya Karya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eko Joko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assidiq Salma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Perabotan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fauzan Johan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulfi Nadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Rata rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratna</t>
+    <t>Kayla Hayyan</t>
+  </si>
+  <si>
+    <t>Jl. Jaya Karya</t>
+  </si>
+  <si>
+    <t>Eko Joko</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Assidiq Salma</t>
+  </si>
+  <si>
+    <t>Jl. Perabotan</t>
+  </si>
+  <si>
+    <t>Fauzan Johan</t>
+  </si>
+  <si>
+    <t>Ulfi Nadia</t>
+  </si>
+  <si>
+    <t>Siska</t>
+  </si>
+  <si>
+    <t>Jl. Rata rata</t>
+  </si>
+  <si>
+    <t>Bisma</t>
+  </si>
+  <si>
+    <t>Ratna</t>
   </si>
   <si>
     <t xml:space="preserve"> PNS</t>
@@ -712,43 +716,43 @@
     <t xml:space="preserve">Crish </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Perumahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eggy Saputra Tama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Kudus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budionon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afiful Aufa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rian Febrianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Penyabungan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahdrul Fitriana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satpam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur Fatiah</t>
+    <t>Jl. Perumahan</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Linlin</t>
+  </si>
+  <si>
+    <t>Budha</t>
+  </si>
+  <si>
+    <t>Eggy Saputra Tama</t>
+  </si>
+  <si>
+    <t>Jl. Kudus</t>
+  </si>
+  <si>
+    <t>Budionon</t>
+  </si>
+  <si>
+    <t>Afiful Aufa</t>
+  </si>
+  <si>
+    <t>Rian Febrianto</t>
+  </si>
+  <si>
+    <t>Jl. Penyabungan</t>
+  </si>
+  <si>
+    <t>Bahdrul Fitriana</t>
+  </si>
+  <si>
+    <t>Satpam</t>
+  </si>
+  <si>
+    <t>Nur Fatiah</t>
   </si>
   <si>
     <t xml:space="preserve">SMP N 30 </t>
@@ -757,13 +761,13 @@
     <t xml:space="preserve"> Jl. Melati</t>
   </si>
   <si>
-    <t xml:space="preserve">Andri Siregar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/02/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dedi Siregar</t>
+    <t>Andri Siregar</t>
+  </si>
+  <si>
+    <t>30/02/2003</t>
+  </si>
+  <si>
+    <t>Dedi Siregar</t>
   </si>
   <si>
     <t xml:space="preserve"> Nazli</t>
@@ -772,205 +776,205 @@
     <t xml:space="preserve">Yusri </t>
   </si>
   <si>
-    <t xml:space="preserve">Rahmat Anto</t>
+    <t>Rahmat Anto</t>
   </si>
   <si>
     <t xml:space="preserve"> Penjual</t>
   </si>
   <si>
-    <t xml:space="preserve">Ram Hevelio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/18/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio Pratama</t>
+    <t>Ram Hevelio</t>
+  </si>
+  <si>
+    <t>14/18/2003</t>
+  </si>
+  <si>
+    <t>Rio Pratama</t>
   </si>
   <si>
     <t xml:space="preserve">Ananda </t>
   </si>
   <si>
-    <t xml:space="preserve">Baiq Agustina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Aeikmel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdul Mukti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marwah</t>
+    <t>Baiq Agustina</t>
+  </si>
+  <si>
+    <t>Jl. Aeikmel</t>
+  </si>
+  <si>
+    <t>Abdul Mukti</t>
+  </si>
+  <si>
+    <t>Marwah</t>
   </si>
   <si>
     <t xml:space="preserve"> S1</t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Aeikmil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handri Pathurrahman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Lili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaka Susanto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madriah Jumiah</t>
+    <t>Jl. Aeikmil</t>
+  </si>
+  <si>
+    <t>Handri Pathurrahman</t>
+  </si>
+  <si>
+    <t>Jl. Lili</t>
+  </si>
+  <si>
+    <t>Jaka Susanto</t>
+  </si>
+  <si>
+    <t>Madriah Jumiah</t>
   </si>
   <si>
     <t xml:space="preserve">SMA </t>
   </si>
   <si>
-    <t xml:space="preserve">Novia Zanwadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Lulilas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riwanti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Lulila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khaerul Umam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jokok Dana</t>
+    <t>Novia Zanwadi</t>
+  </si>
+  <si>
+    <t>Jl. Lulilas</t>
+  </si>
+  <si>
+    <t>Riwanti</t>
+  </si>
+  <si>
+    <t>Jl. Lulila</t>
+  </si>
+  <si>
+    <t>Khaerul Umam</t>
+  </si>
+  <si>
+    <t>Jokok Dana</t>
   </si>
   <si>
     <t xml:space="preserve"> Jansfour</t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Negri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andri Wahyu A.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Oktober</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambang Surio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwi Lestari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holifathul Ilmiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Sekar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ismail</t>
+    <t>Jl. Negri</t>
+  </si>
+  <si>
+    <t>Bayu</t>
+  </si>
+  <si>
+    <t>Andri Wahyu A.R</t>
+  </si>
+  <si>
+    <t>Jl. Oktober</t>
+  </si>
+  <si>
+    <t>Bambang Surio</t>
+  </si>
+  <si>
+    <t>Dwi Lestari</t>
+  </si>
+  <si>
+    <t>Polwan</t>
+  </si>
+  <si>
+    <t>Holifathul Ilmiah</t>
+  </si>
+  <si>
+    <t>Jl. Sekar</t>
+  </si>
+  <si>
+    <t>Ismail</t>
   </si>
   <si>
     <t xml:space="preserve"> Jl. Mawar</t>
   </si>
   <si>
-    <t xml:space="preserve">Ana Farhana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Kolili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Hasan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nizar</t>
+    <t>Ana Farhana</t>
+  </si>
+  <si>
+    <t>Jl. Kolili</t>
+  </si>
+  <si>
+    <t>Muhammad Hasan</t>
+  </si>
+  <si>
+    <t>Nizar</t>
   </si>
   <si>
     <t xml:space="preserve"> Jl. Kolili</t>
   </si>
   <si>
-    <t xml:space="preserve">Edi Fargusen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Kakkao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilia Jessia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iin Indriawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Banyuwangi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Setia budi</t>
+    <t>Edi Fargusen</t>
+  </si>
+  <si>
+    <t>Jl. Kakkao</t>
+  </si>
+  <si>
+    <t>Lilia Jessia</t>
+  </si>
+  <si>
+    <t>Iin Indriawati</t>
+  </si>
+  <si>
+    <t>Jl. Banyuwangi</t>
+  </si>
+  <si>
+    <t>Warman</t>
+  </si>
+  <si>
+    <t>Alisa</t>
+  </si>
+  <si>
+    <t>Jl. Setia budi</t>
   </si>
   <si>
     <t xml:space="preserve">Hadriatnti Intan </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Bulan bulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giflani Nizar</t>
+    <t>Jl. Bulan bulan</t>
+  </si>
+  <si>
+    <t>Giflani Nizar</t>
   </si>
   <si>
     <t xml:space="preserve">Intan </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP N 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hadriatnti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP N 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indriawati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Lici Raya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP N 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fani Dilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Marunjungjuang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesicca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Maranjuangjuang</t>
+    <t>Jl. November</t>
+  </si>
+  <si>
+    <t>SMP N 31</t>
+  </si>
+  <si>
+    <t>Hadriatnti</t>
+  </si>
+  <si>
+    <t>SMP N 32</t>
+  </si>
+  <si>
+    <t>Indriawati</t>
+  </si>
+  <si>
+    <t>Jl. Lici Raya</t>
+  </si>
+  <si>
+    <t>SMP N 33</t>
+  </si>
+  <si>
+    <t>Fani Dilia</t>
+  </si>
+  <si>
+    <t>Jl. Marunjungjuang</t>
+  </si>
+  <si>
+    <t>Josika</t>
+  </si>
+  <si>
+    <t>Jesicca</t>
+  </si>
+  <si>
+    <t>Jl. Maranjuangjuang</t>
   </si>
   <si>
     <t xml:space="preserve">Shofa Adelia </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahyutri Utomo</t>
+    <t>Jl. Baru</t>
+  </si>
+  <si>
+    <t>Wahyutri Utomo</t>
   </si>
   <si>
     <t xml:space="preserve">Tuty Nur </t>
@@ -979,133 +983,133 @@
     <t xml:space="preserve"> Jl. Baru</t>
   </si>
   <si>
-    <t xml:space="preserve">Nurul Nur Atika</t>
+    <t>Nurul Nur Atika</t>
   </si>
   <si>
     <t xml:space="preserve"> Jl. Pembangunan</t>
   </si>
   <si>
-    <t xml:space="preserve">Ali</t>
+    <t>Ali</t>
   </si>
   <si>
     <t xml:space="preserve">Nadia </t>
   </si>
   <si>
-    <t xml:space="preserve">M Ihsan Maulana</t>
+    <t>M Ihsan Maulana</t>
   </si>
   <si>
     <t xml:space="preserve">Jl Bougeinville </t>
   </si>
   <si>
-    <t xml:space="preserve">Zulfan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Bougeinville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elya Wardhani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dina Undzila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Tasbih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Fadly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mya Utami</t>
+    <t>Zulfan</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Jl. Bougeinville</t>
+  </si>
+  <si>
+    <t>Elya Wardhani</t>
+  </si>
+  <si>
+    <t>Edi</t>
+  </si>
+  <si>
+    <t>Dina Undzila</t>
+  </si>
+  <si>
+    <t>Jl. Tasbih</t>
+  </si>
+  <si>
+    <t>Daniel Fadly</t>
+  </si>
+  <si>
+    <t>Mya Utami</t>
   </si>
   <si>
     <t xml:space="preserve">Wina </t>
   </si>
   <si>
-    <t xml:space="preserve">Rafly Himawasyah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelia Fadly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisnu Wardato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Sereng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Withanto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipi Adelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Alfitrah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Sumatra Utara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimas Pratama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinda Pratama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firmansyah Alfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Kapten Ilyas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firman Utomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. K.H Dewantara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramadhani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahma Andini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl K.H Dewantara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahyu Widianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Gunung Sari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anik</t>
+    <t>Rafly Himawasyah</t>
+  </si>
+  <si>
+    <t>Adelia Fadly</t>
+  </si>
+  <si>
+    <t>Wisnu Wardato</t>
+  </si>
+  <si>
+    <t>Jl. Sereng</t>
+  </si>
+  <si>
+    <t>Withanto</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Pipi Adelia</t>
+  </si>
+  <si>
+    <t>Muhammad Alfitrah</t>
+  </si>
+  <si>
+    <t>Jl. Sumatra Utara</t>
+  </si>
+  <si>
+    <t>Dimas Pratama</t>
+  </si>
+  <si>
+    <t>Dinda Pratama</t>
+  </si>
+  <si>
+    <t>Firmansyah Alfi</t>
+  </si>
+  <si>
+    <t>Jl. Kapten Ilyas</t>
+  </si>
+  <si>
+    <t>Firman Utomo</t>
+  </si>
+  <si>
+    <t>Jl. K.H Dewantara</t>
+  </si>
+  <si>
+    <t>Ramadhani</t>
+  </si>
+  <si>
+    <t>Rahma Andini</t>
+  </si>
+  <si>
+    <t>Jl K.H Dewantara</t>
+  </si>
+  <si>
+    <t>Wahyu Widianto</t>
+  </si>
+  <si>
+    <t>Jl. Gunung Sari</t>
+  </si>
+  <si>
+    <t>Anik</t>
   </si>
   <si>
     <t xml:space="preserve">Aldion </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Prambanan</t>
+    <t>Jl. Prambanan</t>
   </si>
   <si>
     <t xml:space="preserve"> 20/09/2004</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfi Cen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilia Jessica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riski Wahyudi</t>
+    <t>Alfi Cen</t>
+  </si>
+  <si>
+    <t>Lilia Jessica</t>
+  </si>
+  <si>
+    <t>Riski Wahyudi</t>
   </si>
   <si>
     <t xml:space="preserve"> 20/09/2005</t>
@@ -1114,37 +1118,37 @@
     <t xml:space="preserve">Yudha </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Perjuangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanda Dewi</t>
+    <t>Jl. Perjuangan</t>
+  </si>
+  <si>
+    <t>Warianto</t>
+  </si>
+  <si>
+    <t>Wanda Dewi</t>
   </si>
   <si>
     <t xml:space="preserve">Wanda Kususma </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Mundziri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/11/20004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegawai Kantor</t>
+    <t>Jl. Mundziri</t>
+  </si>
+  <si>
+    <t>10/11/20004</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Pegawai Kantor</t>
   </si>
   <si>
     <t xml:space="preserve"> Jeni</t>
   </si>
   <si>
-    <t xml:space="preserve">Muhammad Amin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redy Gunawan</t>
+    <t>Muhammad Amin</t>
+  </si>
+  <si>
+    <t>Redy Gunawan</t>
   </si>
   <si>
     <t xml:space="preserve"> Giselle</t>
@@ -1153,19 +1157,19 @@
     <t xml:space="preserve">Rikki </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Asoka 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
+    <t>Jl. Asoka 1</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
   <si>
     <t xml:space="preserve"> Indah Ramadhani</t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Budi Seia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur</t>
+    <t>Jl. Budi Seia</t>
+  </si>
+  <si>
+    <t>Nur</t>
   </si>
   <si>
     <t xml:space="preserve"> Jl. Budi Seia</t>
@@ -1174,85 +1178,85 @@
     <t xml:space="preserve"> SMP N 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanjug Gunawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaliya</t>
+    <t>Tanjug Gunawan</t>
+  </si>
+  <si>
+    <t>Jamaliya</t>
   </si>
   <si>
     <t xml:space="preserve"> Jl. Bougeinville</t>
   </si>
   <si>
-    <t xml:space="preserve">Ali Hidayat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Jauhitam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahmi Rizal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadia Siti</t>
+    <t>Ali Hidayat</t>
+  </si>
+  <si>
+    <t>Jl. Jauhitam</t>
+  </si>
+  <si>
+    <t>Fahmi Rizal</t>
+  </si>
+  <si>
+    <t>Nadia Siti</t>
   </si>
   <si>
     <t xml:space="preserve"> Ibnu Rezky</t>
   </si>
   <si>
-    <t xml:space="preserve">Muhammad Fakhri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur Atikah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahmad Amin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irfan</t>
+    <t>Muhammad Fakhri</t>
+  </si>
+  <si>
+    <t>Nur Atikah</t>
+  </si>
+  <si>
+    <t>Rahmad Amin</t>
+  </si>
+  <si>
+    <t>Irfan</t>
   </si>
   <si>
     <t xml:space="preserve">PNS </t>
   </si>
   <si>
-    <t xml:space="preserve">Reza Melani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abadi Tarigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leo Tarigan</t>
+    <t>Reza Melani</t>
+  </si>
+  <si>
+    <t>Abadi Tarigan</t>
+  </si>
+  <si>
+    <t>Leo Tarigan</t>
   </si>
   <si>
     <t xml:space="preserve">Egik </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Garuda</t>
+    <t>Jl. Garuda</t>
   </si>
   <si>
     <t xml:space="preserve">Fahmi </t>
   </si>
   <si>
-    <t xml:space="preserve">Rahma Adinda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dandi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenie Andini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leli</t>
+    <t>Rahma Adinda</t>
+  </si>
+  <si>
+    <t>Dandi</t>
+  </si>
+  <si>
+    <t>Arini</t>
+  </si>
+  <si>
+    <t>Jenie Andini</t>
+  </si>
+  <si>
+    <t>Leli</t>
   </si>
   <si>
     <t xml:space="preserve">Anggika </t>
   </si>
   <si>
-    <t xml:space="preserve">Jl. Mawar no 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lianda</t>
+    <t>Jl. Mawar no 2</t>
+  </si>
+  <si>
+    <t>Lianda</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1261,61 +1265,61 @@
     <t xml:space="preserve"> SMP N 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Naufal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Azmi no 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachrul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marischa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Azmi no 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amelia Fakhirah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Maulana</t>
+    <t>Naufal</t>
+  </si>
+  <si>
+    <t>Jl. Azmi no 7</t>
+  </si>
+  <si>
+    <t>Fachrul</t>
+  </si>
+  <si>
+    <t>Marischa</t>
+  </si>
+  <si>
+    <t>Jl. Azmi no 1</t>
+  </si>
+  <si>
+    <t>Amelia Fakhirah</t>
+  </si>
+  <si>
+    <t>Muhammad Maulana</t>
   </si>
   <si>
     <t xml:space="preserve">Nur Nasywa </t>
   </si>
   <si>
-    <t xml:space="preserve">Gunawan Ginting</t>
+    <t>Gunawan Ginting</t>
   </si>
   <si>
     <t xml:space="preserve"> pending</t>
   </si>
   <si>
-    <t xml:space="preserve">Gunawn Irwan</t>
+    <t>Gunawn Irwan</t>
   </si>
   <si>
     <t xml:space="preserve">Ridwan </t>
   </si>
   <si>
-    <t xml:space="preserve">Nur Khairunisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hendra Pratama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junaidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad Adi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dita Rahmadina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fitriayani Nadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Miftahul</t>
+    <t>Nur Khairunisa</t>
+  </si>
+  <si>
+    <t>Hendra Pratama</t>
+  </si>
+  <si>
+    <t>Junaidi</t>
+  </si>
+  <si>
+    <t>Ahmad Adi</t>
+  </si>
+  <si>
+    <t>Dita Rahmadina</t>
+  </si>
+  <si>
+    <t>Fitriayani Nadia</t>
+  </si>
+  <si>
+    <t>Muhammad Miftahul</t>
   </si>
   <si>
     <t xml:space="preserve"> 29/09/2005</t>
@@ -1324,35 +1328,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="H:MM"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1372,7 +1353,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1380,81 +1361,313 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:V140"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,20 +1735,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>38293</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>2016</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1582,20 +1795,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>38246</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>2016</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1642,20 +1855,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>38234</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>2016</v>
       </c>
       <c r="F4" s="1"/>
@@ -1696,20 +1909,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>38210</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>2016</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1756,20 +1969,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>38233</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>2016</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1816,20 +2029,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>38329</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>2016</v>
       </c>
       <c r="F7" s="1"/>
@@ -1870,20 +2083,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>38221</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>2016</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1930,20 +2143,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>38302</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>2016</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1990,20 +2203,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>38252</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>2016</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2050,20 +2263,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>38275</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>2016</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2110,20 +2323,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>37506</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>2016</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2170,20 +2383,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>37507</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>2016</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2230,20 +2443,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>37508</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>2016</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2288,20 +2501,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>37509</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>2016</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2348,20 +2561,20 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>37510</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>2016</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2408,20 +2621,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>37511</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>2016</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2468,20 +2681,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>37512</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>2016</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2528,20 +2741,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>37513</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>2016</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2588,20 +2801,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>37514</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>2016</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2648,20 +2861,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>37515</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>2016</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2708,20 +2921,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>37516</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>2016</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2768,20 +2981,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3">
         <v>37517</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>2016</v>
       </c>
       <c r="F23" s="1"/>
@@ -2822,20 +3035,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3">
         <v>37518</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>2016</v>
       </c>
       <c r="F24" s="1"/>
@@ -2876,20 +3089,20 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>37519</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>2016</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2936,20 +3149,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>37520</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>2016</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2996,20 +3209,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>37521</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1">
         <v>2016</v>
       </c>
       <c r="F27" s="1"/>
@@ -3050,20 +3263,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>37427</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>2016</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3110,20 +3323,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>37155</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>2016</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3170,20 +3383,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>37941</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>2017</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3230,7 +3443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>181</v>
       </c>
@@ -3243,7 +3456,7 @@
       <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="1">
         <v>2017</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3290,20 +3503,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>37946</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="1">
         <v>2017</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3350,20 +3563,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>37643</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="1">
         <v>2017</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -3410,20 +3623,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>37776</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="1">
         <v>2017</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -3470,20 +3683,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>37809</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="1">
         <v>2017</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -3530,20 +3743,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>37812</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="1">
         <v>2017</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3590,20 +3803,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>37664</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="1">
         <v>2017</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3650,20 +3863,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>37701</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="1">
         <v>2017</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3710,20 +3923,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>37939</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="1">
         <v>2017</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3770,20 +3983,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>37890</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="1">
         <v>2017</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -3830,20 +4043,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>37702</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="1">
         <v>2017</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -3890,20 +4103,20 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="3">
         <v>37693</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="1">
         <v>2017</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -3950,20 +4163,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>37575</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="1">
         <v>2017</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4010,7 +4223,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
         <v>245</v>
       </c>
@@ -4023,7 +4236,7 @@
       <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="1">
         <v>2017</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4070,20 +4283,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="3">
         <v>37976</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="1">
         <v>2017</v>
       </c>
       <c r="F45" s="1"/>
@@ -4124,7 +4337,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
         <v>252</v>
       </c>
@@ -4137,7 +4350,7 @@
       <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="1">
         <v>2017</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -4184,20 +4397,20 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="3">
         <v>37879</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="1">
         <v>2017</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -4244,20 +4457,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="3">
         <v>37642</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="1">
         <v>2017</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -4304,20 +4517,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="3">
         <v>37818</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="1">
         <v>2017</v>
       </c>
       <c r="F49" s="1"/>
@@ -4358,20 +4571,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="3">
         <v>37672</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="1">
         <v>2017</v>
       </c>
       <c r="F50" s="1"/>
@@ -4412,20 +4625,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="3">
         <v>36943</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="1">
         <v>2017</v>
       </c>
       <c r="F51" s="1"/>
@@ -4466,20 +4679,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="3">
         <v>37873</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="1">
         <v>2017</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -4526,20 +4739,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:22">
       <c r="A53" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="3">
         <v>37933</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="1">
         <v>2017</v>
       </c>
       <c r="F53" s="1"/>
@@ -4580,20 +4793,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="3">
         <v>37873</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="1">
         <v>2017</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -4640,20 +4853,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="C55" s="3">
         <v>37638</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="1">
         <v>2017</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -4700,20 +4913,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="3">
         <v>37749</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="1">
         <v>2017</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -4760,20 +4973,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="3">
         <v>37813</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="1">
         <v>2017</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -4828,20 +5041,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:22">
       <c r="A58" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="3">
         <v>37814</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="1">
         <v>2017</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -4888,20 +5101,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="3">
         <v>37815</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="1">
         <v>2017</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -4948,20 +5161,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:22">
       <c r="A60" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="3">
         <v>37749</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="1">
         <v>2017</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -5008,20 +5221,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:22">
       <c r="A61" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="3">
         <v>37995</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="1">
         <v>2018</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -5068,20 +5281,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:22">
       <c r="A62" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="3">
         <v>38231</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="1">
         <v>2018</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -5128,20 +5341,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C63" s="3" t="n">
+      <c r="C63" s="3">
         <v>37867</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="1">
         <v>2018</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -5188,20 +5401,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:22">
       <c r="A64" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="3">
         <v>38300</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="1">
         <v>2018</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -5248,20 +5461,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:22">
       <c r="A65" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="3">
         <v>38282</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="1">
         <v>2018</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -5308,20 +5521,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" s="3">
         <v>38253</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E66" s="1">
         <v>2018</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -5368,20 +5581,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="3" t="n">
+      <c r="C67" s="3">
         <v>38234</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="1">
         <v>2018</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -5428,20 +5641,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="C68" s="3">
         <v>38270</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E68" s="1">
         <v>2018</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -5488,20 +5701,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:22">
       <c r="A69" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="C69" s="3">
         <v>38210</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="1">
         <v>2018</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -5548,20 +5761,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" s="3">
         <v>38296</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="1">
         <v>2018</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -5608,20 +5821,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="C71" s="3">
         <v>38695</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E71" s="1">
         <v>2018</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -5668,20 +5881,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:22">
       <c r="A72" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C72" s="3" t="n">
+      <c r="C72" s="3">
         <v>38249</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E72" s="1">
         <v>2018</v>
       </c>
       <c r="F72" s="1"/>
@@ -5722,7 +5935,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:22" ht="15">
       <c r="A73" s="1" t="s">
         <v>356</v>
       </c>
@@ -5735,7 +5948,7 @@
       <c r="D73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E73" s="1">
         <v>2018</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -5782,7 +5995,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:22" ht="15">
       <c r="A74" s="1" t="s">
         <v>361</v>
       </c>
@@ -5795,7 +6008,7 @@
       <c r="D74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E74" s="1">
         <v>2018</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -5842,20 +6055,20 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" s="3">
         <v>37885</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="1">
         <v>2018</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -5902,7 +6115,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
         <v>367</v>
       </c>
@@ -5915,7 +6128,7 @@
       <c r="D76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="1" t="n">
+      <c r="E76" s="1">
         <v>2018</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -5962,20 +6175,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="3" t="n">
+      <c r="C77" s="3">
         <v>38312</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="1">
         <v>2018</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -6022,20 +6235,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" s="3">
         <v>38100</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="1">
         <v>2018</v>
       </c>
       <c r="F78" s="1"/>
@@ -6076,20 +6289,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C79" s="3" t="n">
+      <c r="C79" s="3">
         <v>38009</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="1">
         <v>2018</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -6136,20 +6349,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:22">
       <c r="A80" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="C80" s="3">
         <v>38284</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="1" t="n">
+      <c r="E80" s="1">
         <v>2018</v>
       </c>
       <c r="F80" s="1"/>
@@ -6190,20 +6403,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:22">
       <c r="A81" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C81" s="3" t="n">
+      <c r="C81" s="3">
         <v>38190</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E81" s="1" t="n">
+      <c r="E81" s="1">
         <v>2018</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -6250,20 +6463,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:22">
       <c r="A82" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="C82" s="3">
         <v>38202</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="1" t="n">
+      <c r="E82" s="1">
         <v>2018</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -6310,20 +6523,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="C83" s="3">
         <v>38293</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E83" s="1" t="n">
+      <c r="E83" s="1">
         <v>2018</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -6370,20 +6583,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:22">
       <c r="A84" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="C84" s="3">
         <v>38342</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="1" t="n">
+      <c r="E84" s="1">
         <v>2018</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -6430,20 +6643,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:22">
       <c r="A85" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="C85" s="3">
         <v>37988</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="1" t="n">
+      <c r="E85" s="1">
         <v>2018</v>
       </c>
       <c r="F85" s="1"/>
@@ -6484,20 +6697,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:22">
       <c r="A86" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="3" t="n">
+      <c r="C86" s="3">
         <v>38332</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="1" t="n">
+      <c r="E86" s="1">
         <v>2018</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -6544,20 +6757,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:22">
       <c r="A87" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C87" s="3" t="n">
+      <c r="C87" s="3">
         <v>38189</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="1" t="n">
+      <c r="E87" s="1">
         <v>2018</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -6604,20 +6817,20 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:22">
       <c r="A88" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C88" s="3" t="n">
+      <c r="C88" s="3">
         <v>38201</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="1" t="n">
+      <c r="E88" s="1">
         <v>2018</v>
       </c>
       <c r="F88" s="1"/>
@@ -6658,20 +6871,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:22">
       <c r="A89" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C89" s="3" t="n">
+      <c r="C89" s="3">
         <v>38241</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="1" t="n">
+      <c r="E89" s="1">
         <v>2018</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -6718,20 +6931,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:22">
       <c r="A90" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="3" t="n">
+      <c r="C90" s="3">
         <v>38128</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="1" t="n">
+      <c r="E90" s="1">
         <v>2018</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -6778,20 +6991,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:22">
       <c r="A91" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="C91" s="3">
         <v>38658</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="1" t="n">
+      <c r="E91" s="1">
         <v>2019</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -6838,20 +7051,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:22">
       <c r="A92" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="C92" s="3">
         <v>38611</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E92" s="1" t="n">
+      <c r="E92" s="1">
         <v>2019</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -6898,20 +7111,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:22">
       <c r="A93" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="3" t="n">
+      <c r="C93" s="3">
         <v>38599</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="1" t="n">
+      <c r="E93" s="1">
         <v>2019</v>
       </c>
       <c r="F93" s="1"/>
@@ -6952,20 +7165,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:22">
       <c r="A94" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="C94" s="3">
         <v>38575</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="1" t="n">
+      <c r="E94" s="1">
         <v>2019</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -7012,20 +7225,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:22">
       <c r="A95" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="C95" s="3">
         <v>38598</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E95" s="1" t="n">
+      <c r="E95" s="1">
         <v>2019</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -7072,20 +7285,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:22">
       <c r="A96" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="C96" s="3">
         <v>38694</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E96" s="1" t="n">
+      <c r="E96" s="1">
         <v>2019</v>
       </c>
       <c r="F96" s="1"/>
@@ -7126,20 +7339,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:22">
       <c r="A97" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="C97" s="3">
         <v>38586</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="1" t="n">
+      <c r="E97" s="1">
         <v>2019</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -7186,20 +7399,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:22">
       <c r="A98" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="3">
         <v>38667</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="1" t="n">
+      <c r="E98" s="1">
         <v>2019</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -7246,20 +7459,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:22">
       <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="C99" s="3">
         <v>38617</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E99" s="1" t="n">
+      <c r="E99" s="1">
         <v>2019</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -7306,20 +7519,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:22">
       <c r="A100" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="C100" s="3">
         <v>38672</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="1" t="n">
+      <c r="E100" s="1">
         <v>2019</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -7366,7 +7579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:22">
       <c r="A101" s="1" t="s">
         <v>181</v>
       </c>
@@ -7379,7 +7592,7 @@
       <c r="D101" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="1" t="n">
+      <c r="E101" s="1">
         <v>2019</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -7426,20 +7639,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:22">
       <c r="A102" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="C102" s="3">
         <v>38677</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E102" s="1" t="n">
+      <c r="E102" s="1">
         <v>2019</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -7486,20 +7699,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:22">
       <c r="A103" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="C103" s="3">
         <v>38374</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E103" s="1" t="n">
+      <c r="E103" s="1">
         <v>2019</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -7546,20 +7759,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:22">
       <c r="A104" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="3">
         <v>38507</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="1" t="n">
+      <c r="E104" s="1">
         <v>2019</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -7606,20 +7819,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:22">
       <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="C105" s="3">
         <v>38540</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="1" t="n">
+      <c r="E105" s="1">
         <v>2019</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -7666,20 +7879,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:22">
       <c r="A106" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="C106" s="3">
         <v>38543</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E106" s="1" t="n">
+      <c r="E106" s="1">
         <v>2019</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -7726,20 +7939,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:22">
       <c r="A107" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="C107" s="3">
         <v>38395</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="1" t="n">
+      <c r="E107" s="1">
         <v>2019</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -7786,20 +7999,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:22">
       <c r="A108" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="C108" s="3">
         <v>38432</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E108" s="1" t="n">
+      <c r="E108" s="1">
         <v>2019</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -7846,20 +8059,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:22">
       <c r="A109" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="C109" s="3">
         <v>38670</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E109" s="1" t="n">
+      <c r="E109" s="1">
         <v>2019</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -7906,20 +8119,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:22">
       <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="3">
         <v>38621</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="1" t="n">
+      <c r="E110" s="1">
         <v>2019</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -7966,20 +8179,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:22">
       <c r="A111" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="3">
         <v>38361</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="1" t="n">
+      <c r="E111" s="1">
         <v>2019</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -8026,20 +8239,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:22">
       <c r="A112" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="3">
         <v>38596</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="1" t="n">
+      <c r="E112" s="1">
         <v>2019</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -8086,20 +8299,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:22">
       <c r="A113" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="3">
         <v>38598</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="1" t="n">
+      <c r="E113" s="1">
         <v>2019</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -8146,20 +8359,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:22">
       <c r="A114" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="3">
         <v>38300</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="1" t="n">
+      <c r="E114" s="1">
         <v>2019</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -8206,20 +8419,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:22">
       <c r="A115" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="3">
         <v>38282</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="1" t="n">
+      <c r="E115" s="1">
         <v>2019</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -8266,20 +8479,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:22">
       <c r="A116" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="3">
         <v>38253</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="1" t="n">
+      <c r="E116" s="1">
         <v>2019</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -8326,20 +8539,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:22">
       <c r="A117" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="3">
         <v>38234</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E117" s="1" t="n">
+      <c r="E117" s="1">
         <v>2019</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -8386,20 +8599,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:22">
       <c r="A118" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C118" s="3" t="n">
+      <c r="C118" s="3">
         <v>38270</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E118" s="1" t="n">
+      <c r="E118" s="1">
         <v>2019</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -8446,20 +8659,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:22">
       <c r="A119" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="3" t="n">
+      <c r="C119" s="3">
         <v>38210</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="1" t="n">
+      <c r="E119" s="1">
         <v>2019</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -8506,20 +8719,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:22">
       <c r="A120" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="3" t="n">
+      <c r="C120" s="3">
         <v>38296</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="1" t="n">
+      <c r="E120" s="1">
         <v>2019</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -8566,20 +8779,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:22">
       <c r="A121" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C121" s="3" t="n">
+      <c r="C121" s="3">
         <v>38275</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E121" s="1" t="n">
+      <c r="E121" s="1">
         <v>2019</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -8626,20 +8839,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:22">
       <c r="A122" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="C122" s="3">
         <v>38602</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="1" t="n">
+      <c r="E122" s="1">
         <v>2019</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -8686,20 +8899,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:22">
       <c r="A123" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C123" s="3" t="n">
+      <c r="C123" s="3">
         <v>38603</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E123" s="1" t="n">
+      <c r="E123" s="1">
         <v>2019</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -8746,20 +8959,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:22">
       <c r="A124" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="C124" s="3">
         <v>38604</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E124" s="1" t="n">
+      <c r="E124" s="1">
         <v>2019</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -8804,20 +9017,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:22">
       <c r="A125" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C125" s="3" t="n">
+      <c r="C125" s="3">
         <v>38605</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="1" t="n">
+      <c r="E125" s="1">
         <v>2019</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -8864,20 +9077,20 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:22">
       <c r="A126" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="3" t="n">
+      <c r="C126" s="3">
         <v>38606</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="1" t="n">
+      <c r="E126" s="1">
         <v>2019</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -8924,20 +9137,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:22">
       <c r="A127" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C127" s="3" t="n">
+      <c r="C127" s="3">
         <v>38607</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E127" s="1" t="n">
+      <c r="E127" s="1">
         <v>2019</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -8984,20 +9197,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:22">
       <c r="A128" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="C128" s="3">
         <v>38608</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="1" t="n">
+      <c r="E128" s="1">
         <v>2019</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -9044,20 +9257,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:22">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="C129" s="3">
         <v>38609</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E129" s="1" t="n">
+      <c r="E129" s="1">
         <v>2019</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -9104,20 +9317,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:22">
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="C130" s="3">
         <v>38610</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="1" t="n">
+      <c r="E130" s="1">
         <v>2019</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -9164,20 +9377,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:22">
       <c r="A131" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="C131" s="3">
         <v>38555</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="1" t="n">
+      <c r="E131" s="1">
         <v>2019</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -9224,20 +9437,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:22">
       <c r="A132" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="C132" s="3">
         <v>38567</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E132" s="1" t="n">
+      <c r="E132" s="1">
         <v>2019</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -9284,20 +9497,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:22">
       <c r="A133" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="C133" s="3">
         <v>38658</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E133" s="1" t="n">
+      <c r="E133" s="1">
         <v>2019</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -9344,20 +9557,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:22">
       <c r="A134" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="C134" s="3">
         <v>38707</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E134" s="1" t="n">
+      <c r="E134" s="1">
         <v>2019</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -9404,20 +9617,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:22">
       <c r="A135" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="C135" s="3">
         <v>38354</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E135" s="1" t="n">
+      <c r="E135" s="1">
         <v>2019</v>
       </c>
       <c r="F135" s="1"/>
@@ -9458,20 +9671,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:22">
       <c r="A136" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="C136" s="3">
         <v>38697</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E136" s="1" t="n">
+      <c r="E136" s="1">
         <v>2019</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -9518,20 +9731,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:22">
       <c r="A137" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="C137" s="3">
         <v>38554</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E137" s="1" t="n">
+      <c r="E137" s="1">
         <v>2019</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -9578,20 +9791,20 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:22">
       <c r="A138" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="C138" s="3">
         <v>38566</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E138" s="1" t="n">
+      <c r="E138" s="1">
         <v>2019</v>
       </c>
       <c r="F138" s="1"/>
@@ -9632,20 +9845,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:22">
       <c r="A139" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="C139" s="3">
         <v>38606</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E139" s="1" t="n">
+      <c r="E139" s="1">
         <v>2019</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -9692,20 +9905,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:22">
       <c r="A140" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="C140" s="3">
         <v>38493</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="1" t="n">
+      <c r="E140" s="1">
         <v>2019</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -9753,10 +9966,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
